--- a/public/preprocessing/@syekhalijaber.xlsx
+++ b/public/preprocessing/@syekhalijaber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14746</v>
+        <v>29552</v>
       </c>
       <c r="C2" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,15 +497,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['alhamdulillah', 'laporan', 'kami', 'kepada', 'jamaah', 'sekalian', 'dari', 'program', 'pembangunan', 'masjid', 'pada', 'tanggal', 'oktober', 'tel']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'laporan', 'jamaah', 'program', 'pembangunan', 'masjid', 'tanggal', 'oktober', 'tel']</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'lapor', 'jamaah', 'program', 'bangun', 'masjid', 'tanggal', 'oktober', 'tel']</t>
         </is>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14747</v>
+        <v>29553</v>
       </c>
       <c r="C3" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,17 +538,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['praktik', 'wudhu']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['praktek', 'wudhu']</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['praktek', 'wudhu']</t>
+          <t>['praktik', 'wudhu']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['praktik', 'wudhu']</t>
         </is>
       </c>
     </row>
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14748</v>
+        <v>29554</v>
       </c>
       <c r="C4" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,17 +579,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['sepenggal', 'kisah', 'santri', 'mahir', 'dengan', 'al', 'alquran', 'devara', 'athoriq', 'titik', 'balik', 'penghafal', 'al', 'alquran', 'asal', 'dari', 'jambi', 'though']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['sepenggal', 'kisah', 'santri', 'mahir', 'al', 'quran', 'devara', 'athoriq', 'titik', 'penghafal', 'al', 'quran', 'jambi', 'tho']</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['penggal', 'kisah', 'santri', 'mahir', 'al', 'quran', 'devara', 'athoriq', 'titik', 'hafal', 'al', 'quran', 'jambi', 'tho']</t>
+          <t>['sepenggal', 'kisah', 'santri', 'mahir', 'al', 'alquran', 'devara', 'athoriq', 'titik', 'penghafal', 'al', 'alquran', 'jambi', 'though']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['penggal', 'kisah', 'santri', 'mahir', 'al', 'alquran', 'devara', 'athoriq', 'titik', 'hafal', 'al', 'alquran', 'jambi', 'though']</t>
         </is>
       </c>
     </row>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14749</v>
+        <v>29555</v>
       </c>
       <c r="C5" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -600,15 +620,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['fadhilah', 'surat', 'al', 'kahfi', 'oleh', 'alijaber', 'muratal', 'muhammadjaber']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>['fadhilah', 'surat', 'al', 'kahfi', 'alijaber', 'muratal', 'muhammadjaber']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>['fadhilah', 'surat', 'al', 'kahfi', 'alijaber', 'muratal', 'muhammadjaber']</t>
         </is>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14750</v>
+        <v>29556</v>
       </c>
       <c r="C6" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,15 +661,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['apakah', 'pintu', 'taubat', 'masih', 'terbuka', 'sedangkan', 'dosa', 'kita', 'teramat', 'banyak', 'bahkan', 'dosa', 'tersebut', 'terus', 'berulang', 'dan', 'sek']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>['pintu', 'taubat', 'terbuka', 'dosa', 'teramat', 'dosa', 'berulang', 'sek']</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>['pintu', 'taubat', 'buka', 'dosa', 'amat', 'dosa', 'ulang', 'sek']</t>
         </is>
@@ -655,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14751</v>
+        <v>29557</v>
       </c>
       <c r="C7" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,17 +702,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['developer', 'properti', 'syariat', 'bogor', 'mengajak', 'anda', 'yang', 'berjiwa', 'dakwah', 'dan', 'semangat', 'yang', 'tinggi', 'untuk', 'bergabung', 'mewuju']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['developer', 'property', 'syariah', 'bogor', 'mengajak', 'berjiwa', 'dakwah', 'semangat', 'bergabung', 'mewuju']</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['developer', 'property', 'syariah', 'bogor', 'ajak', 'jiwa', 'dakwah', 'semangat', 'gabung', 'mewuju']</t>
+          <t>['developer', 'properti', 'syariat', 'bogor', 'mengajak', 'berjiwa', 'dakwah', 'semangat', 'bergabung', 'mewuju']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['developer', 'properti', 'syariat', 'bogor', 'ajak', 'jiwa', 'dakwah', 'semangat', 'gabung', 'mewuju']</t>
         </is>
       </c>
     </row>
@@ -691,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14752</v>
+        <v>29558</v>
       </c>
       <c r="C8" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -708,15 +743,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['untuk', 'kita', 'renungkan', 'setiap', 'orang', 'akan', 'ditanya', 'berbagai', 'macam', 'nikmat', 'yang', 'mereka', 'rasakan', 'di', 'dunia', 'apakah', 'mere']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>['renungkan', 'orang', 'nikmat', 'rasakan', 'dunia', 'mere']</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>['renung', 'orang', 'nikmat', 'rasa', 'dunia', 'mere']</t>
         </is>
@@ -727,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14753</v>
+        <v>29559</v>
       </c>
       <c r="C9" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -744,15 +784,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['tidak', 'diragukan', 'lagi', 'bahwa', 'tauhid', 'memiliki', 'kedudukan', 'yang', 'sangat', 'agung', 'dalam', 'islam', 'oleh', 'karena', 'itu', 'bagi', 'siapa', 'yan']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>['diragukan', 'tauhid', 'memiliki', 'kedudukan', 'agung', 'islam', 'yan']</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>['ragu', 'tauhid', 'milik', 'duduk', 'agung', 'islam', 'yan']</t>
         </is>
@@ -763,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14754</v>
+        <v>29560</v>
       </c>
       <c r="C10" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -780,15 +825,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['belajar', 'islam', 'berinfaq', 'dan', 'meraih', 'manfaat', 'selengkapnya', 'klik', 'di']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>['belajar', 'islam', 'berinfaq', 'meraih', 'manfaat', 'selengkapnya', 'klik']</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['ajar', 'islam', 'berinfaq', 'raih', 'manfaat', 'lengkap', 'klik']</t>
         </is>
@@ -799,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14755</v>
+        <v>29561</v>
       </c>
       <c r="C11" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -816,15 +866,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['bersedekah', 'oleh', 'alijaber', 'diantara', 'ciri', 'orang', 'bertakwa', 'pertama', 'yaitu', 'orangorang', 'yang', 'menginfakkan', 'hart']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>['bersedekah', 'alijaber', 'ciri', 'orang', 'bertakwa', 'orangorang', 'menginfakkan', 'hart']</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>['sedekah', 'alijaber', 'ciri', 'orang', 'takwa', 'orangorang', 'infak', 'hart']</t>
         </is>
@@ -835,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14756</v>
+        <v>29562</v>
       </c>
       <c r="C12" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -852,15 +907,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['bersedekah', 'oleh', 'alijaber', 'diantara', 'ciri', 'orang', 'bertakwa', 'pertama', 'yaitu', 'orangorang', 'yang', 'menginfakkan', 'hart']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>['bersedekah', 'alijaber', 'ciri', 'orang', 'bertakwa', 'orangorang', 'menginfakkan', 'hart']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['sedekah', 'alijaber', 'ciri', 'orang', 'takwa', 'orangorang', 'infak', 'hart']</t>
         </is>
@@ -871,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14757</v>
+        <v>29563</v>
       </c>
       <c r="C13" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -888,15 +948,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['kematian', 'tak', 'bisa', 'dihindari', 'tidak', 'mungkin', 'ada', 'yang', 'bisa', 'lari', 'darinya', 'namun', 'seribu', 'sayang', 'sedikit', 'yang', 'mau', 'memper']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>['kematian', 'dihindari', 'lari', 'darinya', 'seribu', 'sayang', 'memper']</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>['mati', 'hindar', 'lari', 'dari', 'ribu', 'sayang', 'memper']</t>
         </is>
@@ -907,10 +972,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14758</v>
+        <v>29564</v>
       </c>
       <c r="C14" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -924,17 +989,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['kami', 'syekhalijaber', 'mengucapkan', 'terima, kasih', 'kepada', 'jamaah', 'sekalian', 'element', 'pemerintah', 'dan', 'siapapun', 'yang', 'ik']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['syekhalijaber', 'terimakasih', 'jamaah', 'element', 'pemerintah', 'ik']</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['syekhalijaber', 'terimakasih', 'jamaah', 'element', 'perintah', 'ik']</t>
+          <t>['syekhalijaber', 'terima, kasih', 'jamaah', 'element', 'pemerintah', 'ik']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['syekhalijaber', 'terima kasih', 'jamaah', 'element', 'perintah', 'ik']</t>
         </is>
       </c>
     </row>
@@ -943,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14759</v>
+        <v>29565</v>
       </c>
       <c r="C15" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -960,17 +1030,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'bersama', 'ustaz', 'yanis']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadz', 'yanis']</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadz', 'yanis']</t>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustaz', 'yanis']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustaz', 'yanis']</t>
         </is>
       </c>
     </row>
@@ -979,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14760</v>
+        <v>29566</v>
       </c>
       <c r="C16" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -996,17 +1071,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['kunjungan', 'dari', 'syekh', 'anas', 'karzoon', 'amp', 'dari', 'syekh', 'giyas', 'abdul', 'baqi', 'dari', 'muslim', 'world', 'league', 'kitab', 'and', 'sunnah', 'intl', 'orang']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['kunjungan', 'dr', 'syekh', 'anas', 'karzoon', 'dr', 'syekh', 'giyas', 'abdul', 'baqi', 'muslim', 'world', 'league', 'kitab', 'and', 'sunnah', 'intl', 'org']</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['kunjung', 'dr', 'syekh', 'anas', 'karzoon', 'dr', 'syekh', 'giyas', 'abdul', 'baqi', 'muslim', 'world', 'league', 'kitab', 'and', 'sunnah', 'intl', 'org']</t>
+          <t>['kunjungan', 'syekh', 'anas', 'karzoon', 'syekh', 'giyas', 'abdul', 'baqi', 'muslim', 'world', 'league', 'kitab', 'and', 'sunnah', 'intl', 'orang']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['kunjung', 'syekh', 'anas', 'karzoon', 'syekh', 'giyas', 'abdul', 'baqi', 'muslim', 'world', 'league', 'kitab', 'and', 'sunnah', 'intl', 'orang']</t>
         </is>
       </c>
     </row>
@@ -1015,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14761</v>
+        <v>29567</v>
       </c>
       <c r="C17" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1032,15 +1112,20 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['kajian', 'pekanan', 'yayasan', 'sysekh', 'ali', 'jaber', 'bersama', 'habib', 'abdurrahman', 'al', 'habsyi']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>['kajian', 'pekanan', 'yayasan', 'sysekh', 'ali', 'jaber', 'habib', 'abdurrahman', 'al', 'habsyi']</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>['kaji', 'pekan', 'yayasan', 'sysekh', 'ali', 'jaber', 'habib', 'abdurrahman', 'al', 'habsyi']</t>
         </is>
@@ -1051,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14762</v>
+        <v>29568</v>
       </c>
       <c r="C18" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1068,15 +1153,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber']</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber']</t>
         </is>
@@ -1087,10 +1177,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14763</v>
+        <v>29569</v>
       </c>
       <c r="C19" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1104,15 +1194,20 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'bersama', 'ustadzyanis']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadzyanis']</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadzyanis']</t>
         </is>
@@ -1123,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14764</v>
+        <v>29570</v>
       </c>
       <c r="C20" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1140,15 +1235,20 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['cahaya', 'yang', 'akan', 'menerangi', 'perjalanan', 'hidup', 'seorang', 'hamba', 'dan', 'menuntunnya', 'menuju', 'keselamatan', 'adalah', 'cahaya', 'alqura']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>['cahaya', 'menerangi', 'perjalanan', 'hidup', 'hamba', 'menuntunnya', 'keselamatan', 'cahaya', 'alqura']</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>['cahaya', 'rang', 'jalan', 'hidup', 'hamba', 'tuntun', 'selamat', 'cahaya', 'alqura']</t>
         </is>
@@ -1159,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14765</v>
+        <v>29571</v>
       </c>
       <c r="C21" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1176,17 +1276,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'bersama', 'ustaz', 'ahmad', 'basirt']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadz', 'ahmad', 'basirt']</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadz', 'ahmad', 'basirt']</t>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustaz', 'ahmad', 'basirt']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustaz', 'ahmad', 'basirt']</t>
         </is>
       </c>
     </row>
@@ -1195,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14766</v>
+        <v>29572</v>
       </c>
       <c r="C22" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1212,15 +1317,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['posted', 'new', 'video', 'to', 'facebook']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>['posted', 'new', 'video', 'to', 'facebook']</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>['posted', 'new', 'video', 'to', 'facebook']</t>
         </is>
@@ -1231,10 +1341,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14767</v>
+        <v>29573</v>
       </c>
       <c r="C23" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1248,15 +1358,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['posted', 'new', 'video', 'to', 'facebook']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>['posted', 'new', 'video', 'to', 'facebook']</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>['posted', 'new', 'video', 'to', 'facebook']</t>
         </is>
@@ -1267,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14768</v>
+        <v>29574</v>
       </c>
       <c r="C24" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1284,17 +1399,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['kajian', 'pekanan', 'markaz', 'mahir', 'dengan', 'al', 'alquran', 'bersama', 'ustaz', 'misbahul', 'munir']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['kajian', 'pekanan', 'markaz', 'mahir', 'al', 'quran', 'ustadz', 'misbahul', 'munir']</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['kaji', 'pekan', 'markaz', 'mahir', 'al', 'quran', 'ustadz', 'misbahul', 'munir']</t>
+          <t>['kajian', 'pekanan', 'markaz', 'mahir', 'al', 'alquran', 'ustaz', 'misbahul', 'munir']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['kaji', 'pekan', 'markaz', 'mahir', 'al', 'alquran', 'ustaz', 'misbahul', 'munir']</t>
         </is>
       </c>
     </row>
@@ -1303,10 +1423,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14769</v>
+        <v>29575</v>
       </c>
       <c r="C25" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1320,17 +1440,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['pembagian', 'daging', 'kurban', 'syekhalijaber']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['pembagian', 'daging', 'qurban', 'syekhalijaber']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['bagi', 'daging', 'qurban', 'syekhalijaber']</t>
+          <t>['pembagian', 'daging', 'kurban', 'syekhalijaber']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['bagi', 'daging', 'kurban', 'syekhalijaber']</t>
         </is>
       </c>
     </row>
@@ -1339,10 +1464,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>14770</v>
+        <v>29576</v>
       </c>
       <c r="C26" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1356,17 +1481,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['kurban', 'syekhalijaber']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['qurban', 'syekhalijaber']</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['qurban', 'syekhalijaber']</t>
+          <t>['kurban', 'syekhalijaber']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['kurban', 'syekhalijaber']</t>
         </is>
       </c>
     </row>
@@ -1375,10 +1505,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14771</v>
+        <v>29577</v>
       </c>
       <c r="C27" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1392,17 +1522,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['kurban', 'syekhalijaber']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['qurban', 'syekhalijaber']</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['qurban', 'syekhalijaber']</t>
+          <t>['kurban', 'syekhalijaber']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['kurban', 'syekhalijaber']</t>
         </is>
       </c>
     </row>
@@ -1411,10 +1546,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14772</v>
+        <v>29578</v>
       </c>
       <c r="C28" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1428,15 +1563,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'bersama', 'habib', 'abdurrahman', 'al', 'habsyi']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'habib', 'abdurrahman', 'al', 'habsyi']</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'habib', 'abdurrahman', 'al', 'habsyi']</t>
         </is>
@@ -1447,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>14773</v>
+        <v>29579</v>
       </c>
       <c r="C29" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1464,15 +1604,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'bersama', 'habib', 'abdurrahman', 'al', 'habsyi']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'habib', 'abdurrahman', 'al', 'habsyi']</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'habib', 'abdurrahman', 'al', 'habsyi']</t>
         </is>
@@ -1483,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>14774</v>
+        <v>29580</v>
       </c>
       <c r="C30" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1500,17 +1645,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['doa', 'dan', 'kobaran', 'semangat', 'dari', 'jamaah', 'haji', 'bersama', 'alijaber', 'untuk', 'indonesia', 'yang', 'lebih', 'baik', 'lagi', 'ke, depan']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['doa', 'kobaran', 'semangat', 'jamaah', 'haji', 'alijaber', 'indonesia', 'kedepan']</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['doa', 'kobar', 'semangat', 'jamaah', 'haji', 'alijaber', 'indonesia', 'depan']</t>
+          <t>['doa', 'kobaran', 'semangat', 'jamaah', 'haji', 'alijaber', 'indonesia', 'ke, depan']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['doa', 'kobar', 'semangat', 'jamaah', 'haji', 'alijaber', 'indonesia', 'ke depan']</t>
         </is>
       </c>
     </row>
@@ -1519,10 +1669,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14775</v>
+        <v>29581</v>
       </c>
       <c r="C31" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1536,17 +1686,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['harihari', 'mulia', 'dan', 'berkah', 'jangan', 'melewati', 'semoga', 'bermanfaat', 'silahkakn', 'bagikan', 'sebanyakbanyaknya']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['harihari', 'mulia', 'berkah', 'lewatkan', 'semoga', 'bermanfaat', 'silahkakn', 'share', 'sebanyakbanyaknya']</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['harihari', 'mulia', 'berkah', 'lewat', 'moga', 'manfaat', 'silahkakn', 'share', 'sebanyakbanyaknya']</t>
+          <t>['harihari', 'mulia', 'berkah', 'melewati', 'semoga', 'bermanfaat', 'silahkakn', 'bagikan', 'sebanyakbanyaknya']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['harihari', 'mulia', 'berkah', 'lewat', 'moga', 'manfaat', 'silahkakn', 'bagi', 'sebanyakbanyaknya']</t>
         </is>
       </c>
     </row>
@@ -1555,10 +1710,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14776</v>
+        <v>29582</v>
       </c>
       <c r="C32" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1572,15 +1727,20 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['belajar', 'islam', 'sedari', 'awal', 'biasa', 'via', 'telegram', 'berlangganan', 'bulanan', 'kini', 'telah', 'hadir', 'untuk', 'kita', 'program', 'belajar']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>['belajar', 'islam', 'sedari', 'via', 'telegram', 'berlangganan', 'bulanan', 'hadir', 'program', 'belajar']</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>['ajar', 'islam', 'dar', 'via', 'telegram', 'langgan', 'bulan', 'hadir', 'program', 'ajar']</t>
         </is>
@@ -1591,10 +1751,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14777</v>
+        <v>29583</v>
       </c>
       <c r="C33" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1608,15 +1768,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>['alhamdulillah', 'keberangkatan', 'jamaah', 'haji', 'bersama', 'alijaber', 'semoga', 'menjadi', 'haji', 'yang', 'mabrur', 'yang', 'belum', 'haji']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
+          <t>&lt;FreqDist with 11 samples and 14 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>['alhamdulillah', 'keberangkatan', 'jamaah', 'haji', 'alijaber', 'semoga', 'haji', 'mabrur', 'haji']</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'berangkat', 'jamaah', 'haji', 'alijaber', 'moga', 'haji', 'mabrur', 'haji']</t>
         </is>
@@ -1627,10 +1792,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14778</v>
+        <v>29584</v>
       </c>
       <c r="C34" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1644,15 +1809,20 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['belajar', 'islam', 'sedari', 'awal', 'biasa', 'via', 'telegram', 'berlangganan', 'bulanan', 'mau', 'kisah', 'para', 'nabi', 'amp', 'orangorang', 'shale']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>['belajar', 'islam', 'sedari', 'via', 'telegram', 'berlangganan', 'bulanan', 'kisah', 'nabi', 'orangorang', 'shale']</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>['ajar', 'islam', 'dar', 'via', 'telegram', 'langgan', 'bulan', 'kisah', 'nabi', 'orangorang', 'shale']</t>
         </is>
@@ -1663,10 +1833,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14779</v>
+        <v>29585</v>
       </c>
       <c r="C35" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1680,15 +1850,20 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['spesial', 'kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>['spesial', 'kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber']</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>['spesial', 'kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber']</t>
         </is>
@@ -1699,10 +1874,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>14780</v>
+        <v>29586</v>
       </c>
       <c r="C36" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1716,15 +1891,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['spesial', 'kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>['spesial', 'kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber']</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>['spesial', 'kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber']</t>
         </is>
@@ -1735,10 +1915,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14781</v>
+        <v>29587</v>
       </c>
       <c r="C37" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1752,17 +1932,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['spesial', 'kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'khataman', 'al', 'alquran']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['spesial', 'kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'khataman', 'al', 'quran']</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['spesial', 'kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'khatam', 'al', 'quran']</t>
+          <t>['spesial', 'kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'khataman', 'al', 'alquran']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['spesial', 'kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'khatam', 'al', 'alquran']</t>
         </is>
       </c>
     </row>
@@ -1771,10 +1956,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14782</v>
+        <v>29588</v>
       </c>
       <c r="C38" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1788,17 +1973,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['khataman', 'al', 'alquran', 'santri', 'mahir', 'dengan', 'al', 'alquran']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['khataman', 'al', 'quran', 'santri', 'mahir', 'al', 'quran']</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['khatam', 'al', 'quran', 'santri', 'mahir', 'al', 'quran']</t>
+          <t>['khataman', 'al', 'alquran', 'santri', 'mahir', 'al', 'alquran']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['khatam', 'al', 'alquran', 'santri', 'mahir', 'al', 'alquran']</t>
         </is>
       </c>
     </row>
@@ -1807,10 +1997,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14783</v>
+        <v>29589</v>
       </c>
       <c r="C39" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1824,15 +2014,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['posted', 'new', 'video', 'to', 'facebook']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>['posted', 'new', 'video', 'to', 'facebook']</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>['posted', 'new', 'video', 'to', 'facebook']</t>
         </is>
@@ -1843,10 +2038,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14784</v>
+        <v>29590</v>
       </c>
       <c r="C40" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1860,17 +2055,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['khataman', 'santri', 'mahir', 'dengan', 'al', 'alquran']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>['khataman', 'santri', 'mahir', 'al', 'quran']</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['khatam', 'santri', 'mahir', 'al', 'quran']</t>
+          <t>['khataman', 'santri', 'mahir', 'al', 'alquran']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['khatam', 'santri', 'mahir', 'al', 'alquran']</t>
         </is>
       </c>
     </row>
@@ -1879,10 +2079,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>14785</v>
+        <v>29591</v>
       </c>
       <c r="C41" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1896,17 +2096,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'bersama', 'ustaz', 'yanis']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadz', 'yanis']</t>
-        </is>
-      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadz', 'yanis']</t>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustaz', 'yanis']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustaz', 'yanis']</t>
         </is>
       </c>
     </row>
@@ -1915,10 +2120,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14786</v>
+        <v>29592</v>
       </c>
       <c r="C42" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1932,17 +2137,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'bersama', 'ustaz', 'misbakhul', 'munir']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadz', 'misbakhul', 'munir']</t>
-        </is>
-      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadz', 'misbakhul', 'munir']</t>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustaz', 'misbakhul', 'munir']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustaz', 'misbakhul', 'munir']</t>
         </is>
       </c>
     </row>
@@ -1951,10 +2161,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14787</v>
+        <v>29593</v>
       </c>
       <c r="C43" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1968,15 +2178,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['para', 'santri', 'tahsin', 'bersama', 'anasjaber', 'adik', 'saya', 'setiap', 'bada', 'magrib']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>['santri', 'tahsin', 'anasjaber', 'adik', 'bada', 'magrib']</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>['santri', 'tahsin', 'anasjaber', 'adik', 'bada', 'magrib']</t>
         </is>
@@ -1987,10 +2202,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14788</v>
+        <v>29594</v>
       </c>
       <c r="C44" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2004,15 +2219,20 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['kajian', 'di', 'masjid', 'raya', 'bani', 'umar', 'bintaro']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>['kajian', 'masjid', 'raya', 'bani', 'umar', 'bintaro']</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>['kaji', 'masjid', 'raya', 'bani', 'umar', 'bintaro']</t>
         </is>
@@ -2023,10 +2243,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14789</v>
+        <v>29595</v>
       </c>
       <c r="C45" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2040,15 +2260,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['posted', 'new', 'video', 'to', 'facebook']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>['posted', 'new', 'video', 'to', 'facebook']</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>['posted', 'new', 'video', 'to', 'facebook']</t>
         </is>
@@ -2059,10 +2284,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14790</v>
+        <v>29596</v>
       </c>
       <c r="C46" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2076,17 +2301,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'bersama', 'ustaz', 'dari', 'ahmad', 'basirt', 'memahami', 'al', 'alquran', 'melalui', 'terjemahan', 'per']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadz', 'dr', 'ahmad', 'basirt', 'memahami', 'al', 'quran', 'terjemahan']</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadz', 'dr', 'ahmad', 'basirt', 'paham', 'al', 'quran', 'terjemah']</t>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustaz', 'ahmad', 'basirt', 'memahami', 'al', 'alquran', 'terjemahan']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustaz', 'ahmad', 'basirt', 'paham', 'al', 'alquran', 'terjemah']</t>
         </is>
       </c>
     </row>
@@ -2095,10 +2325,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14791</v>
+        <v>29597</v>
       </c>
       <c r="C47" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2112,15 +2342,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['posted', 'new', 'video', 'to', 'facebook']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>['posted', 'new', 'video', 'to', 'facebook']</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>['posted', 'new', 'video', 'to', 'facebook']</t>
         </is>
@@ -2131,10 +2366,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14792</v>
+        <v>29598</v>
       </c>
       <c r="C48" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2148,17 +2383,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['besok', 'gathering', 'akbar', 'kawasan', 'perumahan', 'syariat', 'terbesar', 'fasilitas', 'terlengkap', 'amp', 'paling', 'terjangkau', 'di', 'bekasi']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>['besok', 'gathering', 'akbar', 'kawasan', 'perumahan', 'syariah', 'terbesar', 'fasilitas', 'terlengkap', 'terjangkau', 'bekasi']</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['besok', 'gathering', 'akbar', 'kawasan', 'rumah', 'syariah', 'besar', 'fasilitas', 'lengkap', 'jangkau', 'bekas']</t>
+          <t>['besok', 'gathering', 'akbar', 'kawasan', 'perumahan', 'syariat', 'terbesar', 'fasilitas', 'terlengkap', 'terjangkau', 'bekasi']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['besok', 'gathering', 'akbar', 'kawasan', 'rumah', 'syariat', 'besar', 'fasilitas', 'lengkap', 'jangkau', 'bekas']</t>
         </is>
       </c>
     </row>
@@ -2167,10 +2407,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14793</v>
+        <v>29599</v>
       </c>
       <c r="C49" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2184,17 +2424,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['santri', 'kami', 'mahir', 'dengan', 'al', 'alquran', 'sedang', 'tahsin', 'sama', 'adik', 'saya', 'syekh', 'anas', 'jaber']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>['santri', 'mahir', 'al', 'quran', 'tahsin', 'adik', 'syekh', 'anas', 'jaber']</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['santri', 'mahir', 'al', 'quran', 'tahsin', 'adik', 'syekh', 'anas', 'jaber']</t>
+          <t>['santri', 'mahir', 'al', 'alquran', 'tahsin', 'adik', 'syekh', 'anas', 'jaber']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['santri', 'mahir', 'al', 'alquran', 'tahsin', 'adik', 'syekh', 'anas', 'jaber']</t>
         </is>
       </c>
     </row>
@@ -2203,10 +2448,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14794</v>
+        <v>29600</v>
       </c>
       <c r="C50" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2220,17 +2465,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['gathering', 'akbar', 'kawasan', 'perumahan', 'syariat', 'terbesar', 'fasilitas', 'terlengkap', 'amp', 'paling', 'terjangkau', 'di', 'bekasi', 'tepat']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['gathering', 'akbar', 'kawasan', 'perumahan', 'syariah', 'terbesar', 'fasilitas', 'terlengkap', 'terjangkau', 'bekasi']</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['gathering', 'akbar', 'kawasan', 'rumah', 'syariah', 'besar', 'fasilitas', 'lengkap', 'jangkau', 'bekas']</t>
+          <t>['gathering', 'akbar', 'kawasan', 'perumahan', 'syariat', 'terbesar', 'fasilitas', 'terlengkap', 'terjangkau', 'bekasi']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['gathering', 'akbar', 'kawasan', 'rumah', 'syariat', 'besar', 'fasilitas', 'lengkap', 'jangkau', 'bekas']</t>
         </is>
       </c>
     </row>
@@ -2239,10 +2489,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14795</v>
+        <v>29601</v>
       </c>
       <c r="C51" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2256,15 +2506,20 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['anak', 'anak', 'kami', 'santri']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>['anak', 'anak', 'santri']</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>['anak', 'anak', 'santri']</t>
         </is>
@@ -2275,10 +2530,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14796</v>
+        <v>29602</v>
       </c>
       <c r="C52" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2292,17 +2547,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['kami', 'syekhalijaber', 'mengucapkan', 'terima, kasih', 'kepada', 'jamaah', 'sekalian', 'element', 'pemerintah', 'dan', 'siapapun', 'yang', 'ik']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>['syekhalijaber', 'terimakasih', 'jamaah', 'element', 'pemerintah', 'ik']</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['syekhalijaber', 'terimakasih', 'jamaah', 'element', 'perintah', 'ik']</t>
+          <t>['syekhalijaber', 'terima, kasih', 'jamaah', 'element', 'pemerintah', 'ik']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['syekhalijaber', 'terima kasih', 'jamaah', 'element', 'perintah', 'ik']</t>
         </is>
       </c>
     </row>
@@ -2311,10 +2571,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14797</v>
+        <v>29603</v>
       </c>
       <c r="C53" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2328,17 +2588,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['geser', 'kekanan', 'laporan', 'kegiatan', 'tebar', 'sembako', 'nasional', 'amp', 'santunan', 'anak', 'yatim', 'ramadan', 'diberbagai', 'daerah']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['geser', 'kekanan', 'laporan', 'kegiatan', 'tebar', 'sembako', 'nasional', 'santunan', 'anak', 'yatim', 'ramadhan', 'diberbagai', 'daerah']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['geser', 'kan', 'lapor', 'giat', 'tebar', 'sembako', 'nasional', 'santun', 'anak', 'yatim', 'ramadhan', 'bagai', 'daerah']</t>
+          <t>['geser', 'kekanan', 'laporan', 'kegiatan', 'tebar', 'sembako', 'nasional', 'santunan', 'anak', 'yatim', 'ramadan', 'diberbagai', 'daerah']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['geser', 'kan', 'lapor', 'giat', 'tebar', 'sembako', 'nasional', 'santun', 'anak', 'yatim', 'ramadan', 'bagai', 'daerah']</t>
         </is>
       </c>
     </row>
@@ -2347,10 +2612,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14798</v>
+        <v>29604</v>
       </c>
       <c r="C54" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2364,17 +2629,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['prelaunching', 'kawasan', 'cluster', 'perumahan', 'syariat', 'terbesar', 'fasilitas', 'terlengkap', 'amp', 'paling', 'terjangkau', 'di', 'bekasi', 'tepat']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['prelaunching', 'kawasan', 'cluster', 'perumahan', 'syariah', 'terbesar', 'fasilitas', 'terlengkap', 'terjangkau', 'bekasi']</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['prelaunching', 'kawasan', 'cluster', 'rumah', 'syariah', 'besar', 'fasilitas', 'lengkap', 'jangkau', 'bekas']</t>
+          <t>['prelaunching', 'kawasan', 'cluster', 'perumahan', 'syariat', 'terbesar', 'fasilitas', 'terlengkap', 'terjangkau', 'bekasi']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['prelaunching', 'kawasan', 'cluster', 'rumah', 'syariat', 'besar', 'fasilitas', 'lengkap', 'jangkau', 'bekas']</t>
         </is>
       </c>
     </row>
@@ -2383,10 +2653,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14799</v>
+        <v>29605</v>
       </c>
       <c r="C55" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2400,17 +2670,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['ibnu', 'qayyim', 'aljauziyah', 'berkata', 'hari', 'jumat', 'adalah', 'hari', 'ibadah', 'hari', 'ini', 'dibandingkan', 'dengan', 'harihari', 'lainnya', 'dan']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['ibnu', 'qayyim', 'aljauziyah', 'jumat', 'ibadah', 'dibandingkan', 'harihari', 'da']</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['ibnu', 'qayyim', 'aljauziyah', 'jumat', 'ibadah', 'banding', 'harihari', 'da']</t>
+          <t>['ibnu', 'qayyim', 'aljauziyah', 'jumat', 'ibadah', 'dibandingkan', 'harihari']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['ibnu', 'qayyim', 'aljauziyah', 'jumat', 'ibadah', 'banding', 'harihari']</t>
         </is>
       </c>
     </row>
@@ -2419,10 +2694,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14800</v>
+        <v>29606</v>
       </c>
       <c r="C56" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2436,15 +2711,20 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['jaber', 'cluster', 'madinah', 'city', 'taman', 'darussalam', 'bekasi', 'miliki', 'hunian', 'nyaman', 'dan', 'islami']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>['jaber', 'cluster', 'madinah', 'city', 'taman', 'darussalam', 'bekasi', 'miliki', 'hunian', 'nyaman', 'islami']</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>['jaber', 'cluster', 'madinah', 'city', 'taman', 'darussalam', 'bekas', 'milik', 'huni', 'nyaman', 'islami']</t>
         </is>
@@ -2455,10 +2735,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14801</v>
+        <v>29607</v>
       </c>
       <c r="C57" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2472,17 +2752,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'raya', 'idul', 'fitri', 'taqabalallahu', 'minna', 'wa', 'minkum', 'shaalihul', 'amal', 'kullu', 'am', 'wa', 'kalian', 'bii', 'khair']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>['selamat', 'raya', 'idul', 'fitri', 'taqabalallahu', 'minna', 'wa', 'minkum', 'shaalihul', 'amal', 'kullu', 'am', 'wa', 'antum', 'bii', 'khair']</t>
-        </is>
-      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['selamat', 'raya', 'idul', 'fitri', 'taqabalallahu', 'minna', 'wa', 'minkum', 'shaalihul', 'amal', 'kullu', 'am', 'wa', 'antum', 'bii', 'khair']</t>
+          <t>['selamat', 'raya', 'idul', 'fitri', 'taqabalallahu', 'minna', 'wa', 'minkum', 'shaalihul', 'amal', 'kullu', 'am', 'wa', 'bii', 'khair']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['selamat', 'raya', 'idul', 'fitri', 'taqabalallahu', 'minna', 'wa', 'minkum', 'shaalihul', 'amal', 'kullu', 'am', 'wa', 'bii', 'khair']</t>
         </is>
       </c>
     </row>
@@ -2491,10 +2776,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14802</v>
+        <v>29608</v>
       </c>
       <c r="C58" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2508,15 +2793,20 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'raya', 'idul', 'fitri']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>['selamat', 'raya', 'idul', 'fitri']</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>['selamat', 'raya', 'idul', 'fitri']</t>
         </is>
@@ -2527,10 +2817,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14803</v>
+        <v>29609</v>
       </c>
       <c r="C59" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2544,17 +2834,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['itikaf', 'oleh', 'dari', 'ahmad', 'basirt', 'sama']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['itikaf', 'dr', 'ahmad', 'basirt', 'ma']</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['itikaf', 'dr', 'ahmad', 'basirt', 'ma']</t>
+          <t>['itikaf', 'ahmad', 'basirt']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['itikaf', 'ahmad', 'basirt']</t>
         </is>
       </c>
     </row>
@@ -2563,10 +2858,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14804</v>
+        <v>29610</v>
       </c>
       <c r="C60" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2580,15 +2875,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['saya', 'bersama', 'madinah', 'city', 'dan', 'insyaallah', 'anda', 'juga', 'saya', 'mengkonsep', 'pembangunan', 'peradaban', 'islam', 'di', 'perumahan', 'islam']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>['madinah', 'city', 'insyaallah', 'mengkonsep', 'pembangunan', 'peradaban', 'islam', 'perumahan', 'islam']</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>['madinah', 'city', 'insyaallah', 'konsep', 'bangun', 'adab', 'islam', 'rumah', 'islam']</t>
         </is>
@@ -2599,10 +2899,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14805</v>
+        <v>29611</v>
       </c>
       <c r="C61" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2616,15 +2916,20 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['buka', 'puasa', 'dan', 'santunan', 'anak', 'yatim']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>['buka', 'puasa', 'santunan', 'anak', 'yatim']</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>['buka', 'puasa', 'santun', 'anak', 'yatim']</t>
         </is>
@@ -2635,10 +2940,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14806</v>
+        <v>29612</v>
       </c>
       <c r="C62" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2652,17 +2957,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>['masyaallah', 'tabarakallah', 'nikmatnya', 'syukur', 'oleh', 'ustaz', 'ahmad', 'basirt', 'beliau', 'pimpinan', 'markaz', 'mahir', 'dengan', 'al', 'alquran']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>['masyaallah', 'tabarakallah', 'nikmatnya', 'syukur', 'ustadz', 'ahmad', 'basirt', 'beliau', 'pimpinan', 'markaz', 'mahir', 'al', 'quran']</t>
-        </is>
-      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['masyaallah', 'tabarakallah', 'nikmat', 'syukur', 'ustadz', 'ahmad', 'basirt', 'beliau', 'pimpin', 'markaz', 'mahir', 'al', 'quran']</t>
+          <t>['masyaallah', 'tabarakallah', 'nikmatnya', 'syukur', 'ustaz', 'ahmad', 'basirt', 'beliau', 'pimpinan', 'markaz', 'mahir', 'al', 'alquran']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['masyaallah', 'tabarakallah', 'nikmat', 'syukur', 'ustaz', 'ahmad', 'basirt', 'beliau', 'pimpin', 'markaz', 'mahir', 'al', 'alquran']</t>
         </is>
       </c>
     </row>
@@ -2671,10 +2981,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14807</v>
+        <v>29613</v>
       </c>
       <c r="C63" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2688,15 +2998,20 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['suasana', 'buka', 'puasa', 'bersama', 'di', 'hari', 'ke', 'di', 'markaz', 'yayasan', 'alijaber', 'menikmati', 'makanan']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>['suasana', 'buka', 'puasa', 'markaz', 'yayasan', 'alijaber', 'menikmati', 'makanan']</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>['suasana', 'buka', 'puasa', 'markaz', 'yayasan', 'alijaber', 'nikmat', 'makan']</t>
         </is>
@@ -2707,10 +3022,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14808</v>
+        <v>29614</v>
       </c>
       <c r="C64" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2724,15 +3039,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['posted', 'new', 'video', 'to', 'facebook']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>['posted', 'new', 'video', 'to', 'facebook']</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>['posted', 'new', 'video', 'to', 'facebook']</t>
         </is>
@@ -2743,10 +3063,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14809</v>
+        <v>29615</v>
       </c>
       <c r="C65" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2760,17 +3080,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['suasana', 'buka', 'puasa', 'bersama', 'di', 'hari', 'ke', 'ramadan', 'di', 'markaz', 'yayasan', 'alijaber', 'menikmati']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['suasana', 'buka', 'puasa', 'ramadhan', 'markaz', 'yayasan', 'alijaber', 'menikmati']</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['suasana', 'buka', 'puasa', 'ramadhan', 'markaz', 'yayasan', 'alijaber', 'nikmat']</t>
+          <t>['suasana', 'buka', 'puasa', 'ramadan', 'markaz', 'yayasan', 'alijaber', 'menikmati']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['suasana', 'buka', 'puasa', 'ramadan', 'markaz', 'yayasan', 'alijaber', 'nikmat']</t>
         </is>
       </c>
     </row>
@@ -2779,10 +3104,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14810</v>
+        <v>29616</v>
       </c>
       <c r="C66" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2796,17 +3121,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['oleh', 'ustaz', 'ahmad', 'basirt', 'direktur', 'mahir', 'dengan', 'al', 'alquran']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>['ustadz', 'ahmad', 'basirt', 'direktur', 'mahir', 'al', 'quran']</t>
-        </is>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['ustadz', 'ahmad', 'basirt', 'direktur', 'mahir', 'al', 'quran']</t>
+          <t>['ustaz', 'ahmad', 'basirt', 'direktur', 'mahir', 'al', 'alquran']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['ustaz', 'ahmad', 'basirt', 'direktur', 'mahir', 'al', 'alquran']</t>
         </is>
       </c>
     </row>
@@ -2815,10 +3145,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14811</v>
+        <v>29617</v>
       </c>
       <c r="C67" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2832,17 +3162,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['syekh', 'alareqi', 'doa', 'bulan', 'ramadan', 'oleh', 'syekh', 'alareqi']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>['syekh', 'alareqi', 'doa', 'ramadhan', 'syekh', 'alareqi']</t>
-        </is>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['syekh', 'alareqi', 'doa', 'ramadhan', 'syekh', 'alareqi']</t>
+          <t>['syekh', 'alareqi', 'doa', 'ramadan', 'syekh', 'alareqi']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['syekh', 'alareqi', 'doa', 'ramadan', 'syekh', 'alareqi']</t>
         </is>
       </c>
     </row>
@@ -2851,10 +3186,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14812</v>
+        <v>29618</v>
       </c>
       <c r="C68" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2868,17 +3203,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['pesan', 'ramadan', 'dari', 'adik', 'saya', 'saudarasaudariku', 'yang', 'dimuliakan', 'allah', 'subhanahu, wa, taala', 'saya', 'harap', 'semuanya', 'memb']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>['pesan', 'ramadhan', 'adik', 'saudarasaudariku', 'dimuliakan', 'allah', 'swt', 'harap', 'memb']</t>
-        </is>
-      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['pesan', 'ramadhan', 'adik', 'saudarasaudariku', 'mulia', 'allah', 'swt', 'harap', 'memb']</t>
+          <t>['pesan', 'ramadan', 'adik', 'saudarasaudariku', 'dimuliakan', 'allah', 'subhanahu, wa, taala', 'harap', 'memb']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['pesan', 'ramadan', 'adik', 'saudarasaudariku', 'mulia', 'allah', 'subhanahu wa taala', 'harap', 'memb']</t>
         </is>
       </c>
     </row>
@@ -2887,10 +3227,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14813</v>
+        <v>29619</v>
       </c>
       <c r="C69" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2904,17 +3244,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['tips', 'ramadan', 'dari', 'ustaz', 'ahmad', 'basirt', 'lcma', 'beliau', 'pimpinan', 'pimpinan', 'mahir', 'dengan', 'al', 'alquran', 'yayasan', 'syekh', 'ali', 'jab']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>['tips', 'ramadhan', 'ustadz', 'ahmad', 'basirt', 'lcma', 'beliau', 'pimpinan', 'pimpinan', 'mahir', 'al', 'quran', 'yayasan', 'syekh', 'ali', 'jab']</t>
-        </is>
-      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['tips', 'ramadhan', 'ustadz', 'ahmad', 'basirt', 'lcma', 'beliau', 'pimpin', 'pimpin', 'mahir', 'al', 'quran', 'yayasan', 'syekh', 'ali', 'jab']</t>
+          <t>['tips', 'ramadan', 'ustaz', 'ahmad', 'basirt', 'lcma', 'beliau', 'pimpinan', 'pimpinan', 'mahir', 'al', 'alquran', 'yayasan', 'syekh', 'ali', 'jab']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['tips', 'ramadan', 'ustaz', 'ahmad', 'basirt', 'lcma', 'beliau', 'pimpin', 'pimpin', 'mahir', 'al', 'alquran', 'yayasan', 'syekh', 'ali', 'jab']</t>
         </is>
       </c>
     </row>
@@ -2923,10 +3268,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14814</v>
+        <v>29620</v>
       </c>
       <c r="C70" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2940,17 +3285,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['rt', 'assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'sudah', 'siap', 'dapat', 'ilmu', 'dari', 'di', 'hari', 'ini', 'yuk', 'ajak', 'adik', 'kakak']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'ilmu', 'yuk', 'ajak', 'adik', 'kaka']</t>
-        </is>
-      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'ilmu', 'yuk', 'ajak', 'adik', 'kaka']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'ilmu', 'yuk', 'ajak', 'adik', 'kakak']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'ilmu', 'yuk', 'ajak', 'adik', 'kakak']</t>
         </is>
       </c>
     </row>
@@ -2959,10 +3309,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14815</v>
+        <v>29621</v>
       </c>
       <c r="C71" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2976,15 +3326,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['program', 'ini', 'hanya', 'tahun', 'sekali', 'belajar', 'jualan', 'yang', 'sesuai', 'dengan', 'kekuatanpotensi', 'kita', 'melaluidigital', 'marketing']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>['program', 'belajar', 'jualan', 'sesuai', 'kekuatanpotensi', 'melaluidigital', 'marketing']</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>['program', 'ajar', 'jual', 'sesuai', 'kekuatanpotensi', 'melaluidigital', 'marketing']</t>
         </is>
@@ -2995,10 +3350,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14816</v>
+        <v>29622</v>
       </c>
       <c r="C72" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3012,17 +3367,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['masyaallah', 'syukran', 'jazakumullah', 'untuk', 'tim', 'saya', 'sehingga', 'bisa', 'berkhidmat', 'untuk', 'umat', 'dan', 'berdayaguna', 'bagi', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>['masyaallah', 'syukran', 'jazakumullah', 'tim', 'berkhidmat', 'ummat', 'berdayaguna', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['masyaallah', 'syukran', 'jazakumullah', 'tim', 'khidmat', 'ummat', 'berdayaguna', 'indonesia']</t>
+          <t>['masyaallah', 'syukran', 'jazakumullah', 'tim', 'berkhidmat', 'umat', 'berdayaguna', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['masyaallah', 'syukran', 'jazakumullah', 'tim', 'khidmat', 'umat', 'berdayaguna', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -3031,10 +3391,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14817</v>
+        <v>29623</v>
       </c>
       <c r="C73" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3048,17 +3408,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'bersama', 'ustaz', 'basirt', 'lc', 'sama', 'tips', 'menyambut', 'ramadan']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadz', 'basirt', 'lc', 'ma', 'tips', 'menyambut', 'ramadhan']</t>
-        </is>
-      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadz', 'basirt', 'lc', 'ma', 'tips', 'sambut', 'ramadhan']</t>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustaz', 'basirt', 'lc', 'tips', 'menyambut', 'ramadan']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustaz', 'basirt', 'lc', 'tips', 'sambut', 'ramadan']</t>
         </is>
       </c>
     </row>
@@ -3067,10 +3432,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14818</v>
+        <v>29624</v>
       </c>
       <c r="C74" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3084,15 +3449,20 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['madinah', 'city', 'taman', 'darussalam', 'bekasi', 'undangan', 'acara', 'gat']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>['madinah', 'city', 'taman', 'darussalam', 'bekasi', 'undangan', 'acara', 'gat']</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>['madinah', 'city', 'taman', 'darussalam', 'bekas', 'undang', 'acara', 'gat']</t>
         </is>
@@ -3103,10 +3473,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14819</v>
+        <v>29625</v>
       </c>
       <c r="C75" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3120,15 +3490,20 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['jika', 'kalian', 'tidak', 'menemukan', 'aku', 'di', 'surga', 'maka', 'tanyakanlah', 'tentang', 'aku', 'kepada', 'allah', 'ucapkan', 'wahai', 'tuhan', 'kami', 'ham']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>['menemukan', 'surga', 'tanyakanlah', 'allah', 'ucapkan', 'tuhan', 'ham']</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>['temu', 'surga', 'tanya', 'allah', 'ucap', 'tuhan', 'ham']</t>
         </is>
@@ -3139,10 +3514,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14820</v>
+        <v>29626</v>
       </c>
       <c r="C76" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3156,17 +3531,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['daurah', 'ramadan', 'raih', 'hafalan', 'quranmu', 'dalam', 'hari', 'pendaftaran', 'hari', 'ini', 'hari', 'terakhir', 'dan', 'sudah', 'orang', 'pe']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>['daurah', 'ramadhan', 'raih', 'hafalan', 'quranmu', 'pendaftaran', 'orang', 'pe']</t>
-        </is>
-      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['daurah', 'ramadhan', 'raih', 'hafal', 'quran', 'daftar', 'orang', 'pe']</t>
+          <t>['daurah', 'ramadan', 'raih', 'hafalan', 'quranmu', 'pendaftaran', 'orang', 'pe']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['daurah', 'ramadan', 'raih', 'hafal', 'quran', 'daftar', 'orang', 'pe']</t>
         </is>
       </c>
     </row>
@@ -3175,10 +3555,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14821</v>
+        <v>29627</v>
       </c>
       <c r="C77" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3192,17 +3572,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['jangan', 'bangga', 'dengan', 'maksiat', 'semoga', 'bermanfaat', 'silakan', 'bagikan', 'dan', 'amalkan']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>['bangga', 'maksiat', 'semoga', 'bermanfaat', 'silahkan', 'share', 'amalkan']</t>
-        </is>
-      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['bangga', 'maksiat', 'moga', 'manfaat', 'silah', 'share', 'amal']</t>
+          <t>['bangga', 'maksiat', 'semoga', 'bermanfaat', 'silakan', 'bagikan', 'amalkan']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['bangga', 'maksiat', 'moga', 'manfaat', 'sila', 'bagi', 'amal']</t>
         </is>
       </c>
     </row>
@@ -3211,10 +3596,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14822</v>
+        <v>29628</v>
       </c>
       <c r="C78" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3228,15 +3613,20 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['belajar', 'berdagang', 'di', 'dunia', 'digital', 'sadarkah', 'kita', 'bahwa', 'rasulullah', 'saja', 'seorang', 'pedagang', 'yang', 'ulung', 'kita', 'aplikasik']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>['belajar', 'berdagang', 'dunia', 'digital', 'sadarkah', 'rasulullah', 'pedagang', 'ulung', 'aplikasik']</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>['ajar', 'dagang', 'dunia', 'digital', 'sadar', 'rasulullah', 'dagang', 'ulung', 'aplikasik']</t>
         </is>
@@ -3247,10 +3637,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14823</v>
+        <v>29629</v>
       </c>
       <c r="C79" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3264,17 +3654,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'bersama', 'ustaz', 'indar', 'firdianta']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadz', 'indar', 'firdianta']</t>
-        </is>
-      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadz', 'indar', 'firdianta']</t>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustaz', 'indar', 'firdianta']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustaz', 'indar', 'firdianta']</t>
         </is>
       </c>
     </row>
@@ -3283,10 +3678,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14824</v>
+        <v>29630</v>
       </c>
       <c r="C80" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3300,15 +3695,20 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['kloter', 'umrah', 'akbar', 'bersama', 'syekh', 'ali', 'jaber']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>['kloter', 'umrah', 'akbar', 'syekh', 'ali', 'jaber']</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>['kloter', 'umrah', 'akbar', 'syekh', 'ali', 'jaber']</t>
         </is>
@@ -3319,10 +3719,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14825</v>
+        <v>29631</v>
       </c>
       <c r="C81" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3336,15 +3736,20 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['posted', 'new', 'video', 'to', 'facebook']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>['posted', 'new', 'video', 'to', 'facebook']</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>['posted', 'new', 'video', 'to', 'facebook']</t>
         </is>
@@ -3355,10 +3760,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>14826</v>
+        <v>29632</v>
       </c>
       <c r="C82" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3372,15 +3777,20 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['umrah', 'akbar']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>['umrah', 'akbar']</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>['umrah', 'akbar']</t>
         </is>
@@ -3391,10 +3801,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>14827</v>
+        <v>29633</v>
       </c>
       <c r="C83" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3408,17 +3818,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['april', 'umrah', 'akbar', 'kurang', 'lebih', 'jamaah', 'bersama', 'syekh', 'ali', 'jaber', 'syekh', 'muhammad', 'jaber', 'ustaz', 'ahm']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>['april', 'umrah', 'akbar', 'jamaah', 'syeikh', 'ali', 'jaber', 'syeikh', 'muhammad', 'jaber', 'ustaz', 'ahm']</t>
-        </is>
-      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['april', 'umrah', 'akbar', 'jamaah', 'syeikh', 'ali', 'jaber', 'syeikh', 'muhammad', 'jaber', 'ustaz', 'ahm']</t>
+          <t>['april', 'umrah', 'akbar', 'jamaah', 'syekh', 'ali', 'jaber', 'syekh', 'muhammad', 'jaber', 'ustaz', 'ahm']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['april', 'umrah', 'akbar', 'jamaah', 'syekh', 'ali', 'jaber', 'syekh', 'muhammad', 'jaber', 'ustaz', 'ahm']</t>
         </is>
       </c>
     </row>
@@ -3427,10 +3842,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14828</v>
+        <v>29634</v>
       </c>
       <c r="C84" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3444,17 +3859,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'bersama', 'ustaz', 'ahmad', 'basirt', 'lc', 'sama']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadz', 'ahmad', 'basirt', 'lc', 'ma']</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustadz', 'ahmad', 'basirt', 'lc', 'ma']</t>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustaz', 'ahmad', 'basirt', 'lc']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'ustaz', 'ahmad', 'basirt', 'lc']</t>
         </is>
       </c>
     </row>
@@ -3463,10 +3883,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14829</v>
+        <v>29635</v>
       </c>
       <c r="C85" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3480,17 +3900,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['apa', 'sih', 'perbedaan', 'ibadah', 'dengan', 'sepenuh', 'hati', 'dan', 'ibadah', 'hanya', 'karena', 'melaksanakan', 'kewajiban', 'ternyata', 'ada', 'lo', 'iba']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>['perbedaan', 'ibadah', 'sepenuh', 'hati', 'ibadah', 'melaksanakan', 'kewajiban', 'lho', 'iba']</t>
-        </is>
-      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['beda', 'ibadah', 'sepenuh', 'hati', 'ibadah', 'laksana', 'wajib', 'lho', 'iba']</t>
+          <t>['perbedaan', 'ibadah', 'sepenuh', 'hati', 'ibadah', 'melaksanakan', 'kewajiban', 'lo', 'iba']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['beda', 'ibadah', 'sepenuh', 'hati', 'ibadah', 'laksana', 'wajib', 'lo', 'iba']</t>
         </is>
       </c>
     </row>
@@ -3499,10 +3924,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>14830</v>
+        <v>29636</v>
       </c>
       <c r="C86" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3516,17 +3941,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['stres', 'menghadapi', 'kemacetan']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['stress', 'menghadapi', 'kemacetan']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['stress', 'hadap', 'macet']</t>
+          <t>['stres', 'menghadapi', 'kemacetan']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['stres', 'hadap', 'macet']</t>
         </is>
       </c>
     </row>
@@ -3535,10 +3965,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>14831</v>
+        <v>29637</v>
       </c>
       <c r="C87" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
@@ -3548,15 +3978,20 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3567,10 +4002,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>14832</v>
+        <v>29638</v>
       </c>
       <c r="C88" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3584,15 +4019,20 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['di', 'surga', 'ada', 'delapan', 'pintu', 'surga', 'salah', 'satu', 'pintu', 'dinamakan', 'arrayyan', 'dan', 'pintu', 'ini', 'khusus', 'bagi', 'orang', 'yang', 'berpuas']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>['surga', 'delapan', 'pintu', 'surga', 'salah', 'pintu', 'dinamakan', 'arrayyan', 'pintu', 'khusus', 'orang', 'berpuas']</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>['surga', 'delapan', 'pintu', 'surga', 'salah', 'pintu', 'nama', 'arrayyan', 'pintu', 'khusus', 'orang', 'puas']</t>
         </is>
@@ -3603,10 +4043,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>14833</v>
+        <v>29639</v>
       </c>
       <c r="C89" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3620,17 +4060,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'jalan', 'jatinegara', 'barat', 'no', 'rtrw', 'bali', 'mester', 'jatinegara', 'kota', 'jak']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'jl', 'jatinegara', 'barat', 'no', 'rtrw', 'bali', 'mester', 'jatinegara', 'kota', 'jak']</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'jl', 'jatinegara', 'barat', 'no', 'rtrw', 'bal', 'mester', 'jatinegara', 'kota', 'jak']</t>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'jalan', 'jatinegara', 'barat', 'no', 'rtrw', 'bali', 'mester', 'jatinegara', 'kota', 'jak']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'jalan', 'jatinegara', 'barat', 'no', 'rtrw', 'bal', 'mester', 'jatinegara', 'kota', 'jak']</t>
         </is>
       </c>
     </row>
@@ -3639,10 +4084,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>14834</v>
+        <v>29640</v>
       </c>
       <c r="C90" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3656,17 +4101,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['nasihat', 'dari', 'ustaz', 'ahmad', 'basirt', 'beliau', 'selaku', 'pimpinan', 'di', 'markaz', 'tahfidz', 'silakan', 'simak', 'sem']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['nasihat', 'ustadz', 'ahmad', 'basirt', 'beliau', 'pimpinan', 'markaz', 'tahfidz', 'silahkan', 'simak', 'sem']</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['nasihat', 'ustadz', 'ahmad', 'basirt', 'beliau', 'pimpin', 'markaz', 'tahfidz', 'silah', 'simak', 'sem']</t>
+          <t>['nasihat', 'ustaz', 'ahmad', 'basirt', 'beliau', 'pimpinan', 'markaz', 'tahfidz', 'silakan', 'simak', 'sem']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['nasihat', 'ustaz', 'ahmad', 'basirt', 'beliau', 'pimpin', 'markaz', 'tahfidz', 'sila', 'simak', 'sem']</t>
         </is>
       </c>
     </row>
@@ -3675,10 +4125,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14835</v>
+        <v>29641</v>
       </c>
       <c r="C91" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3692,17 +4142,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['nutrisi', 'terbaik', 'untuk', 'hati', 'kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'jalan', 'jatinegara', 'barat', 'no', 'rtrw']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>['nutrisi', 'terbaik', 'hati', 'kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'jl', 'jatinegara', 'barat', 'no', 'rtrw']</t>
-        </is>
-      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['nutrisi', 'baik', 'hati', 'kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'jl', 'jatinegara', 'barat', 'no', 'rtrw']</t>
+          <t>['nutrisi', 'terbaik', 'hati', 'kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'jalan', 'jatinegara', 'barat', 'no', 'rtrw']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['nutrisi', 'baik', 'hati', 'kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'jalan', 'jatinegara', 'barat', 'no', 'rtrw']</t>
         </is>
       </c>
     </row>
@@ -3711,10 +4166,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14836</v>
+        <v>29642</v>
       </c>
       <c r="C92" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3728,15 +4183,20 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['dua', 'amalan', 'yang', 'mengilangkan', 'kegelisahan', 'oleh', 'habib', 'alhabsyi', 'ketua', 'syekhalijaber', 'untuk', 'nontn', 'full']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>['amalan', 'mengilangkan', 'kegelisahan', 'habib', 'alhabsyi', 'ketua', 'syekhalijaber', 'nontn', 'full']</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>['amal', 'kilang', 'gelisah', 'habib', 'alhabsyi', 'ketua', 'syekhalijaber', 'nontn', 'full']</t>
         </is>
@@ -3747,10 +4207,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14837</v>
+        <v>29643</v>
       </c>
       <c r="C93" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3764,17 +4224,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['jumuah', 'mubarakah', 'perbanyak', 'selawat', 'dan', 'jangan', 'lupa', 'untuk', 'membaca', 'surat', 'al', 'kahfi', 'video', 'inspiratif', 'kebaikankeb']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>['jumuah', 'mubarakah', 'perbanyak', 'shalawat', 'lupa', 'membaca', 'surat', 'al', 'kahfi', 'video', 'inspiratif', 'kebaikankeb']</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['jumuah', 'mubarakah', 'banyak', 'shalawat', 'lupa', 'baca', 'surat', 'al', 'kahfi', 'video', 'inspiratif', 'kebaikankeb']</t>
+          <t>['jumuah', 'mubarakah', 'perbanyak', 'selawat', 'lupa', 'membaca', 'surat', 'al', 'kahfi', 'video', 'inspiratif', 'kebaikankeb']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['jumuah', 'mubarakah', 'banyak', 'selawat', 'lupa', 'baca', 'surat', 'al', 'kahfi', 'video', 'inspiratif', 'kebaikankeb']</t>
         </is>
       </c>
     </row>
@@ -3783,10 +4248,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14838</v>
+        <v>29644</v>
       </c>
       <c r="C94" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3800,15 +4265,20 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['inspiratif', 'kebaikankenbaikan', 'yang', 'kecil', 'yang', 'selalu', 'kita', 'sepelekan', 'semoga', 'bisa', 'mengambil', 'hikmahnya']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>['inspiratif', 'kebaikankenbaikan', 'sepelekan', 'semoga', 'mengambil', 'hikmahnya']</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>['inspiratif', 'kebaikankenbaikan', 'sepele', 'moga', 'ambil', 'hikmah']</t>
         </is>
@@ -3819,10 +4289,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14839</v>
+        <v>29645</v>
       </c>
       <c r="C95" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3836,15 +4306,20 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['gurunya', 'upin', 'amp', 'ipin', 'syekh', 'abdul', 'karim', 'al', 'makki', 'imam', 'masjid', 'di', 'malaysia', 'datang', 'ke', 'yayasan', 'syekh', 'ali', 'jaber', 'silakan']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>['gurunya', 'upin', 'ipin', 'syekh', 'abdul', 'karim', 'al', 'makki', 'imam', 'masjid', 'malaysia', 'yayasan', 'syekh', 'ali', 'jaber', 'silakan']</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>['guru', 'upin', 'ipin', 'syekh', 'abdul', 'karim', 'al', 'makki', 'imam', 'masjid', 'malaysia', 'yayasan', 'syekh', 'ali', 'jaber', 'sila']</t>
         </is>
@@ -3855,10 +4330,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>14840</v>
+        <v>29646</v>
       </c>
       <c r="C96" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3872,15 +4347,20 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['gurunya', 'upin', 'amp', 'ipin', 'syekh', 'abdul', 'karim', 'al', 'makki', 'imam', 'masjid', 'di', 'malaysia', 'datang', 'ke', 'yayasan', 'syekh', 'ali', 'jaber', 'silakan']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>['gurunya', 'upin', 'ipin', 'syekh', 'abdul', 'karim', 'al', 'makki', 'imam', 'masjid', 'malaysia', 'yayasan', 'syekh', 'ali', 'jaber', 'silakan']</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>['guru', 'upin', 'ipin', 'syekh', 'abdul', 'karim', 'al', 'makki', 'imam', 'masjid', 'malaysia', 'yayasan', 'syekh', 'ali', 'jaber', 'sila']</t>
         </is>
@@ -3891,10 +4371,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>14841</v>
+        <v>29647</v>
       </c>
       <c r="C97" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3908,15 +4388,20 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'bersama', 'syekh', 'abdul', 'karim', 'al', 'makki']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'syekh', 'abdul', 'karim', 'al', 'makki']</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'syekh', 'abdul', 'karim', 'al', 'makki']</t>
         </is>
@@ -3927,10 +4412,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14842</v>
+        <v>29648</v>
       </c>
       <c r="C98" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3944,15 +4429,20 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'bersama', 'syekh', 'abdul', 'karim', 'al', 'makki', 'guru', 'upin', 'amp', 'ipin']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>['kajian', 'pekanan', 'yayasan', 'syekh', 'ali', 'jaber', 'syekh', 'abdul', 'karim', 'al', 'makki', 'guru', 'upin', 'ipin']</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>['kaji', 'pekan', 'yayasan', 'syekh', 'ali', 'jaber', 'syekh', 'abdul', 'karim', 'al', 'makki', 'guru', 'upin', 'ipin']</t>
         </is>
@@ -3963,10 +4453,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14843</v>
+        <v>29649</v>
       </c>
       <c r="C99" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3980,17 +4470,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>['tahsin', 'al', 'alquran', 'bersama', 'syekh', 'hussein', 'jaber', 'lanjutan', 'kunjungi', 'tempat', 'belajar', 'yayasan', 'syekh', 'ali', 'jaber', 'jalan']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>['tahsin', 'al', 'quran', 'syekh', 'hussein', 'jaber', 'lanjutan', 'kunjungi', 'belajar', 'yayasan', 'syekh', 'ali', 'jaber', 'jalan']</t>
-        </is>
-      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['tahsin', 'al', 'quran', 'syekh', 'hussein', 'jaber', 'lanjut', 'kunjung', 'ajar', 'yayasan', 'syekh', 'ali', 'jaber', 'jalan']</t>
+          <t>['tahsin', 'al', 'alquran', 'syekh', 'hussein', 'jaber', 'lanjutan', 'kunjungi', 'belajar', 'yayasan', 'syekh', 'ali', 'jaber', 'jalan']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['tahsin', 'al', 'alquran', 'syekh', 'hussein', 'jaber', 'lanjut', 'kunjung', 'ajar', 'yayasan', 'syekh', 'ali', 'jaber', 'jalan']</t>
         </is>
       </c>
     </row>
@@ -3999,10 +4494,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14844</v>
+        <v>29650</v>
       </c>
       <c r="C100" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4016,17 +4511,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>['tahsin', 'al', 'alquran', 'bersama', 'syekh', 'hussein', 'jaber', 'kunjungi', 'tempat', 'belajar', 'yayasan', 'syekh', 'ali', 'jaber', 'jalan', 'jatinegara']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>['tahsin', 'al', 'quran', 'syekh', 'hussein', 'jaber', 'kunjungi', 'belajar', 'yayasan', 'syekh', 'ali', 'jaber', 'jalan', 'jatinegara']</t>
-        </is>
-      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['tahsin', 'al', 'quran', 'syekh', 'hussein', 'jaber', 'kunjung', 'ajar', 'yayasan', 'syekh', 'ali', 'jaber', 'jalan', 'jatinegara']</t>
+          <t>['tahsin', 'al', 'alquran', 'syekh', 'hussein', 'jaber', 'kunjungi', 'belajar', 'yayasan', 'syekh', 'ali', 'jaber', 'jalan', 'jatinegara']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['tahsin', 'al', 'alquran', 'syekh', 'hussein', 'jaber', 'kunjung', 'ajar', 'yayasan', 'syekh', 'ali', 'jaber', 'jalan', 'jatinegara']</t>
         </is>
       </c>
     </row>
@@ -4035,10 +4535,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14845</v>
+        <v>29651</v>
       </c>
       <c r="C101" t="n">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4052,15 +4552,20 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>['belajar', 'kata', 'kerja', 'dalam', 'alquran']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>['belajar', 'kerja', 'alquran']</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>['ajar', 'kerja', 'alquran']</t>
         </is>
